--- a/gn_dam計算.xlsx
+++ b/gn_dam計算.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kasuga\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kasuga\Desktop\takeout\chanel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABA2AEF-5B61-40B4-94AE-4469201DA683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D832D5-F306-4B93-986D-08EF44BA0EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="6330" windowWidth="13995" windowHeight="9360" xr2:uid="{EAD2B129-35AD-45DF-9A8A-179B06684244}"/>
+    <workbookView xWindow="1230" yWindow="45" windowWidth="16470" windowHeight="15285" xr2:uid="{EAD2B129-35AD-45DF-9A8A-179B06684244}"/>
   </bookViews>
   <sheets>
     <sheet name="gn_dam計算" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual" refMode="R1C1" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual" refMode="R1C1" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>攻撃力</t>
     <rPh sb="0" eb="3">
@@ -294,6 +294,62 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>晩がん</t>
+    <rPh sb="0" eb="1">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精錬</t>
+    <rPh sb="0" eb="2">
+      <t>セイレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←★武器＋レベルで引き当て</t>
+    <rPh sb="2" eb="4">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←★キャラ＋レベル　キーで引き当て</t>
+    <rPh sb="13" eb="14">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -674,8 +730,8 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -699,11 +755,45 @@
         <v>24</v>
       </c>
       <c r="B1">
-        <f>(B6*(1+E6)+H6)*(1+K6)*(1+N6)*Q6*T6</f>
+        <f ca="1">(B6*(1+E6)+H6)*(1+K6)*(1+N6)*Q6*T6</f>
         <v>60420.250799999994</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -760,6 +850,9 @@
       <c r="B7">
         <v>150</v>
       </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
@@ -797,6 +890,9 @@
       </c>
       <c r="B8">
         <v>531</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
